--- a/Data_Sets/Chicago_trains/bulls_sched.xlsx
+++ b/Data_Sets/Chicago_trains/bulls_sched.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Dropbox/FeatureArt/FES/Data_Sets/Chicago_trains/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F56F6C-DC69-EA4C-AF18-90DF1EFF308B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="1080" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="2620" yWindow="1080" windowWidth="28160" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="1509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="1508">
   <si>
     <t>Tue, Oct 31, 2000</t>
   </si>
@@ -2364,9 +2365,6 @@
   </si>
   <si>
     <t>Fri, Mar 13, 2009</t>
-  </si>
-  <si>
-    <t>at Philadelphia, PA (Wachovia Spectrum)</t>
   </si>
   <si>
     <t>Sat, Mar 14, 2009</t>
@@ -4559,7 +4557,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4600,6 +4598,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4867,11 +4868,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1470"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1470"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4884,10 +4885,10 @@
         <v>38</v>
       </c>
       <c r="B1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C1" t="s">
         <v>1507</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -11877,7 +11878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>770</v>
       </c>
@@ -11888,7 +11889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>771</v>
       </c>
@@ -11899,7 +11900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>772</v>
       </c>
@@ -11907,7 +11908,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>773</v>
       </c>
@@ -11918,7 +11919,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>774</v>
       </c>
@@ -11926,7 +11927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>775</v>
       </c>
@@ -11934,7 +11935,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>776</v>
       </c>
@@ -11945,7 +11946,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>777</v>
       </c>
@@ -11956,7 +11957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>778</v>
       </c>
@@ -11966,29 +11967,26 @@
       <c r="C745" t="s">
         <v>45</v>
       </c>
-      <c r="D745" t="s">
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
         <v>779</v>
-      </c>
-    </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A746" t="s">
-        <v>780</v>
       </c>
       <c r="C746" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C747" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B748" t="s">
         <v>5</v>
@@ -11997,17 +11995,17 @@
         <v>749</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C749" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B750" t="s">
         <v>5</v>
@@ -12016,17 +12014,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C751" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C752" t="s">
         <v>61</v>
@@ -12034,7 +12032,7 @@
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C753" t="s">
         <v>6</v>
@@ -12042,7 +12040,7 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B754" t="s">
         <v>5</v>
@@ -12053,7 +12051,7 @@
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B755" t="s">
         <v>5</v>
@@ -12064,7 +12062,7 @@
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C756" t="s">
         <v>3</v>
@@ -12072,7 +12070,7 @@
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C757" t="s">
         <v>30</v>
@@ -12080,7 +12078,7 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C758" t="s">
         <v>45</v>
@@ -12088,7 +12086,7 @@
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C759" t="s">
         <v>401</v>
@@ -12096,7 +12094,7 @@
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B760" t="s">
         <v>5</v>
@@ -12107,7 +12105,7 @@
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C761" t="s">
         <v>12</v>
@@ -12115,7 +12113,7 @@
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B762" t="s">
         <v>5</v>
@@ -12126,7 +12124,7 @@
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B763" t="s">
         <v>5</v>
@@ -12137,7 +12135,7 @@
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C764" t="s">
         <v>42</v>
@@ -12145,7 +12143,7 @@
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C765" t="s">
         <v>42</v>
@@ -12153,7 +12151,7 @@
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B766" t="s">
         <v>5</v>
@@ -12164,7 +12162,7 @@
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C767" t="s">
         <v>42</v>
@@ -12172,7 +12170,7 @@
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B768" t="s">
         <v>5</v>
@@ -12183,7 +12181,7 @@
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C769" t="s">
         <v>37</v>
@@ -12191,7 +12189,7 @@
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B770" t="s">
         <v>5</v>
@@ -12202,7 +12200,7 @@
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B771" t="s">
         <v>5</v>
@@ -12213,7 +12211,7 @@
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C772" t="s">
         <v>54</v>
@@ -12221,7 +12219,7 @@
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B773" t="s">
         <v>5</v>
@@ -12232,7 +12230,7 @@
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C774" t="s">
         <v>401</v>
@@ -12240,7 +12238,7 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C775" t="s">
         <v>16</v>
@@ -12248,7 +12246,7 @@
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B776" t="s">
         <v>5</v>
@@ -12259,7 +12257,7 @@
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C777" t="s">
         <v>45</v>
@@ -12267,7 +12265,7 @@
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B778" t="s">
         <v>5</v>
@@ -12278,7 +12276,7 @@
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B779" t="s">
         <v>5</v>
@@ -12289,7 +12287,7 @@
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B780" t="s">
         <v>5</v>
@@ -12300,7 +12298,7 @@
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B781" t="s">
         <v>5</v>
@@ -12311,7 +12309,7 @@
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B782" t="s">
         <v>5</v>
@@ -12322,7 +12320,7 @@
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B783" t="s">
         <v>5</v>
@@ -12333,7 +12331,7 @@
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C784" t="s">
         <v>49</v>
@@ -12341,7 +12339,7 @@
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B785" t="s">
         <v>5</v>
@@ -12352,7 +12350,7 @@
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C786" t="s">
         <v>12</v>
@@ -12360,7 +12358,7 @@
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C787" t="s">
         <v>3</v>
@@ -12368,7 +12366,7 @@
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B788" t="s">
         <v>5</v>
@@ -12379,7 +12377,7 @@
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C789" t="s">
         <v>22</v>
@@ -12387,7 +12385,7 @@
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C790" t="s">
         <v>42</v>
@@ -12395,7 +12393,7 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C791" t="s">
         <v>20</v>
@@ -12403,7 +12401,7 @@
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C792" t="s">
         <v>30</v>
@@ -12411,7 +12409,7 @@
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C793" t="s">
         <v>28</v>
@@ -12419,7 +12417,7 @@
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C794" t="s">
         <v>1</v>
@@ -12427,7 +12425,7 @@
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B795" t="s">
         <v>5</v>
@@ -12438,7 +12436,7 @@
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C796" t="s">
         <v>197</v>
@@ -12446,7 +12444,7 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C797" t="s">
         <v>6</v>
@@ -12454,7 +12452,7 @@
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B798" t="s">
         <v>5</v>
@@ -12465,7 +12463,7 @@
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C799" t="s">
         <v>10</v>
@@ -12473,7 +12471,7 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C800" t="s">
         <v>749</v>
@@ -12481,7 +12479,7 @@
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B801" t="s">
         <v>5</v>
@@ -12492,7 +12490,7 @@
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B802" t="s">
         <v>5</v>
@@ -12503,7 +12501,7 @@
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C803" t="s">
         <v>26</v>
@@ -12511,7 +12509,7 @@
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C804" t="s">
         <v>49</v>
@@ -12519,7 +12517,7 @@
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B805" t="s">
         <v>5</v>
@@ -12530,7 +12528,7 @@
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C806" t="s">
         <v>8</v>
@@ -12538,7 +12536,7 @@
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B807" t="s">
         <v>5</v>
@@ -12549,7 +12547,7 @@
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B808" t="s">
         <v>5</v>
@@ -12560,7 +12558,7 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B809" t="s">
         <v>5</v>
@@ -12571,7 +12569,7 @@
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B810" t="s">
         <v>5</v>
@@ -12582,7 +12580,7 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B811" t="s">
         <v>5</v>
@@ -12593,7 +12591,7 @@
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B812" t="s">
         <v>5</v>
@@ -12604,7 +12602,7 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B813" t="s">
         <v>5</v>
@@ -12615,7 +12613,7 @@
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C814" t="s">
         <v>76</v>
@@ -12623,7 +12621,7 @@
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B815" t="s">
         <v>5</v>
@@ -12634,7 +12632,7 @@
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B816" t="s">
         <v>5</v>
@@ -12645,7 +12643,7 @@
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C817" t="s">
         <v>61</v>
@@ -12653,7 +12651,7 @@
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B818" t="s">
         <v>5</v>
@@ -12664,7 +12662,7 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C819" t="s">
         <v>10</v>
@@ -12672,7 +12670,7 @@
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C820" t="s">
         <v>30</v>
@@ -12680,7 +12678,7 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B821" t="s">
         <v>5</v>
@@ -12691,7 +12689,7 @@
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B822" t="s">
         <v>5</v>
@@ -12702,7 +12700,7 @@
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C823" t="s">
         <v>45</v>
@@ -12710,7 +12708,7 @@
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B824" t="s">
         <v>5</v>
@@ -12721,7 +12719,7 @@
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C825" t="s">
         <v>6</v>
@@ -12729,7 +12727,7 @@
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C826" t="s">
         <v>67</v>
@@ -12737,7 +12735,7 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B827" t="s">
         <v>5</v>
@@ -12748,7 +12746,7 @@
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C828" t="s">
         <v>28</v>
@@ -12756,7 +12754,7 @@
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C829" t="s">
         <v>138</v>
@@ -12764,7 +12762,7 @@
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C830" t="s">
         <v>35</v>
@@ -12772,7 +12770,7 @@
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C831" t="s">
         <v>18</v>
@@ -12780,7 +12778,7 @@
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B832" t="s">
         <v>5</v>
@@ -12791,7 +12789,7 @@
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B833" t="s">
         <v>5</v>
@@ -12802,7 +12800,7 @@
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B834" t="s">
         <v>5</v>
@@ -12813,7 +12811,7 @@
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B835" t="s">
         <v>5</v>
@@ -12824,7 +12822,7 @@
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C836" t="s">
         <v>33</v>
@@ -12832,7 +12830,7 @@
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B837" t="s">
         <v>5</v>
@@ -12843,7 +12841,7 @@
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C838" t="s">
         <v>14</v>
@@ -12851,7 +12849,7 @@
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C839" t="s">
         <v>61</v>
@@ -12859,7 +12857,7 @@
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C840" t="s">
         <v>3</v>
@@ -12867,7 +12865,7 @@
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B841" t="s">
         <v>5</v>
@@ -12878,7 +12876,7 @@
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C842" t="s">
         <v>40</v>
@@ -12886,7 +12884,7 @@
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B843" t="s">
         <v>5</v>
@@ -12897,7 +12895,7 @@
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C844" t="s">
         <v>401</v>
@@ -12905,7 +12903,7 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C845" t="s">
         <v>54</v>
@@ -12913,7 +12911,7 @@
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C846" t="s">
         <v>33</v>
@@ -12921,7 +12919,7 @@
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B847" t="s">
         <v>5</v>
@@ -12932,7 +12930,7 @@
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B848" t="s">
         <v>5</v>
@@ -12943,7 +12941,7 @@
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C849" t="s">
         <v>42</v>
@@ -12951,7 +12949,7 @@
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B850" t="s">
         <v>5</v>
@@ -12962,7 +12960,7 @@
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B851" t="s">
         <v>5</v>
@@ -12973,7 +12971,7 @@
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B852" t="s">
         <v>5</v>
@@ -12984,7 +12982,7 @@
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C853" t="s">
         <v>33</v>
@@ -12992,7 +12990,7 @@
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C854" t="s">
         <v>33</v>
@@ -13000,7 +12998,7 @@
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B855" t="s">
         <v>5</v>
@@ -13011,7 +13009,7 @@
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B856" t="s">
         <v>5</v>
@@ -13022,7 +13020,7 @@
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C857" t="s">
         <v>49</v>
@@ -13030,7 +13028,7 @@
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C858" t="s">
         <v>67</v>
@@ -13038,7 +13036,7 @@
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C859" t="s">
         <v>30</v>
@@ -13046,7 +13044,7 @@
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B860" t="s">
         <v>5</v>
@@ -13057,7 +13055,7 @@
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C861" t="s">
         <v>16</v>
@@ -13065,7 +13063,7 @@
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C862" t="s">
         <v>22</v>
@@ -13073,7 +13071,7 @@
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C863" t="s">
         <v>8</v>
@@ -13081,7 +13079,7 @@
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B864" t="s">
         <v>5</v>
@@ -13092,7 +13090,7 @@
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B865" t="s">
         <v>5</v>
@@ -13103,7 +13101,7 @@
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B866" t="s">
         <v>5</v>
@@ -13114,7 +13112,7 @@
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B867" t="s">
         <v>5</v>
@@ -13125,7 +13123,7 @@
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B868" t="s">
         <v>5</v>
@@ -13136,7 +13134,7 @@
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B869" t="s">
         <v>5</v>
@@ -13147,7 +13145,7 @@
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B870" t="s">
         <v>5</v>
@@ -13158,7 +13156,7 @@
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C871" t="s">
         <v>10</v>
@@ -13166,7 +13164,7 @@
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B872" t="s">
         <v>5</v>
@@ -13177,7 +13175,7 @@
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C873" t="s">
         <v>14</v>
@@ -13185,7 +13183,7 @@
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C874" t="s">
         <v>749</v>
@@ -13193,7 +13191,7 @@
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B875" t="s">
         <v>5</v>
@@ -13204,7 +13202,7 @@
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C876" t="s">
         <v>20</v>
@@ -13212,7 +13210,7 @@
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C877" t="s">
         <v>26</v>
@@ -13220,7 +13218,7 @@
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C878" t="s">
         <v>6</v>
@@ -13228,7 +13226,7 @@
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B879" t="s">
         <v>5</v>
@@ -13239,7 +13237,7 @@
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C880" t="s">
         <v>76</v>
@@ -13247,7 +13245,7 @@
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C881" t="s">
         <v>45</v>
@@ -13255,7 +13253,7 @@
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B882" t="s">
         <v>5</v>
@@ -13266,7 +13264,7 @@
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B883" t="s">
         <v>5</v>
@@ -13277,7 +13275,7 @@
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B884" t="s">
         <v>5</v>
@@ -13288,7 +13286,7 @@
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C885" t="s">
         <v>54</v>
@@ -13296,7 +13294,7 @@
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C886" t="s">
         <v>3</v>
@@ -13304,7 +13302,7 @@
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C887" t="s">
         <v>33</v>
@@ -13312,7 +13310,7 @@
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C888" t="s">
         <v>12</v>
@@ -13320,7 +13318,7 @@
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B889" t="s">
         <v>5</v>
@@ -13331,7 +13329,7 @@
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B890" t="s">
         <v>5</v>
@@ -13342,7 +13340,7 @@
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C891" t="s">
         <v>42</v>
@@ -13350,7 +13348,7 @@
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C892" t="s">
         <v>49</v>
@@ -13358,7 +13356,7 @@
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B893" t="s">
         <v>5</v>
@@ -13369,7 +13367,7 @@
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B894" t="s">
         <v>5</v>
@@ -13380,7 +13378,7 @@
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C895" t="s">
         <v>61</v>
@@ -13388,7 +13386,7 @@
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B896" t="s">
         <v>5</v>
@@ -13399,7 +13397,7 @@
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C897" t="s">
         <v>401</v>
@@ -13407,7 +13405,7 @@
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C898" t="s">
         <v>35</v>
@@ -13415,7 +13413,7 @@
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C899" t="s">
         <v>33</v>
@@ -13423,7 +13421,7 @@
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C900" t="s">
         <v>54</v>
@@ -13431,7 +13429,7 @@
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C901" t="s">
         <v>10</v>
@@ -13439,7 +13437,7 @@
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C902" t="s">
         <v>6</v>
@@ -13447,7 +13445,7 @@
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B903" t="s">
         <v>5</v>
@@ -13458,7 +13456,7 @@
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B904" t="s">
         <v>5</v>
@@ -13469,7 +13467,7 @@
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B905" t="s">
         <v>5</v>
@@ -13480,7 +13478,7 @@
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B906" t="s">
         <v>5</v>
@@ -13491,7 +13489,7 @@
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B907" t="s">
         <v>5</v>
@@ -13502,7 +13500,7 @@
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C908" t="s">
         <v>401</v>
@@ -13510,7 +13508,7 @@
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C909" t="s">
         <v>37</v>
@@ -13518,7 +13516,7 @@
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B910" t="s">
         <v>5</v>
@@ -13529,7 +13527,7 @@
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C911" t="s">
         <v>61</v>
@@ -13537,7 +13535,7 @@
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B912" t="s">
         <v>5</v>
@@ -13548,7 +13546,7 @@
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B913" t="s">
         <v>5</v>
@@ -13559,7 +13557,7 @@
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B914" t="s">
         <v>5</v>
@@ -13570,7 +13568,7 @@
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B915" t="s">
         <v>5</v>
@@ -13581,7 +13579,7 @@
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B916" t="s">
         <v>5</v>
@@ -13592,7 +13590,7 @@
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C917" t="s">
         <v>197</v>
@@ -13600,7 +13598,7 @@
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B918" t="s">
         <v>5</v>
@@ -13611,7 +13609,7 @@
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C919" t="s">
         <v>28</v>
@@ -13619,7 +13617,7 @@
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C920" t="s">
         <v>18</v>
@@ -13627,7 +13625,7 @@
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C921" t="s">
         <v>8</v>
@@ -13635,7 +13633,7 @@
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B922" t="s">
         <v>5</v>
@@ -13646,7 +13644,7 @@
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B923" t="s">
         <v>5</v>
@@ -13657,7 +13655,7 @@
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C924" t="s">
         <v>1</v>
@@ -13665,7 +13663,7 @@
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B925" t="s">
         <v>5</v>
@@ -13676,7 +13674,7 @@
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C926" t="s">
         <v>138</v>
@@ -13684,7 +13682,7 @@
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B927" t="s">
         <v>5</v>
@@ -13695,7 +13693,7 @@
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C928" t="s">
         <v>45</v>
@@ -13703,7 +13701,7 @@
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B929" t="s">
         <v>5</v>
@@ -13714,7 +13712,7 @@
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B930" t="s">
         <v>5</v>
@@ -13725,7 +13723,7 @@
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C931" t="s">
         <v>12</v>
@@ -13733,7 +13731,7 @@
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C932" t="s">
         <v>40</v>
@@ -13741,7 +13739,7 @@
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C933" t="s">
         <v>42</v>
@@ -13749,7 +13747,7 @@
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B934" t="s">
         <v>5</v>
@@ -13760,7 +13758,7 @@
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B935" t="s">
         <v>5</v>
@@ -13771,7 +13769,7 @@
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B936" t="s">
         <v>5</v>
@@ -13782,7 +13780,7 @@
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C937" t="s">
         <v>3</v>
@@ -13790,7 +13788,7 @@
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C938" t="s">
         <v>6</v>
@@ -13798,7 +13796,7 @@
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C939" t="s">
         <v>6</v>
@@ -13806,7 +13804,7 @@
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B940" t="s">
         <v>5</v>
@@ -13817,7 +13815,7 @@
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B941" t="s">
         <v>5</v>
@@ -13828,7 +13826,7 @@
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C942" t="s">
         <v>6</v>
@@ -13836,7 +13834,7 @@
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C943" t="s">
         <v>28</v>
@@ -13844,7 +13842,7 @@
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C944" t="s">
         <v>28</v>
@@ -13852,7 +13850,7 @@
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B945" t="s">
         <v>5</v>
@@ -13863,7 +13861,7 @@
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B946" t="s">
         <v>5</v>
@@ -13874,7 +13872,7 @@
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C947" t="s">
         <v>28</v>
@@ -13882,7 +13880,7 @@
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B948" t="s">
         <v>5</v>
@@ -13893,7 +13891,7 @@
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C949" t="s">
         <v>61</v>
@@ -13901,7 +13899,7 @@
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C950" t="s">
         <v>61</v>
@@ -13909,7 +13907,7 @@
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B951" t="s">
         <v>5</v>
@@ -13920,7 +13918,7 @@
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B952" t="s">
         <v>5</v>
@@ -13931,7 +13929,7 @@
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C953" t="s">
         <v>61</v>
@@ -13939,7 +13937,7 @@
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B954" t="s">
         <v>5</v>
@@ -13950,7 +13948,7 @@
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B955" t="s">
         <v>5</v>
@@ -13961,7 +13959,7 @@
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B956" t="s">
         <v>5</v>
@@ -13972,7 +13970,7 @@
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B957" t="s">
         <v>5</v>
@@ -13983,7 +13981,7 @@
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C958" t="s">
         <v>138</v>
@@ -13991,7 +13989,7 @@
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C959" t="s">
         <v>28</v>
@@ -13999,7 +13997,7 @@
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B960" t="s">
         <v>5</v>
@@ -14010,7 +14008,7 @@
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B961" t="s">
         <v>5</v>
@@ -14021,7 +14019,7 @@
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B962" t="s">
         <v>5</v>
@@ -14032,7 +14030,7 @@
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C963" t="s">
         <v>49</v>
@@ -14040,7 +14038,7 @@
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B964" t="s">
         <v>5</v>
@@ -14051,7 +14049,7 @@
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C965" t="s">
         <v>8</v>
@@ -14059,7 +14057,7 @@
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B966" t="s">
         <v>5</v>
@@ -14070,7 +14068,7 @@
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C967" t="s">
         <v>12</v>
@@ -14078,7 +14076,7 @@
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B968" t="s">
         <v>5</v>
@@ -14089,7 +14087,7 @@
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C969" t="s">
         <v>40</v>
@@ -14097,7 +14095,7 @@
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B970" t="s">
         <v>5</v>
@@ -14108,7 +14106,7 @@
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C971" t="s">
         <v>401</v>
@@ -14116,7 +14114,7 @@
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C972" t="s">
         <v>3</v>
@@ -14124,7 +14122,7 @@
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C973" t="s">
         <v>6</v>
@@ -14132,7 +14130,7 @@
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C974" t="s">
         <v>54</v>
@@ -14140,7 +14138,7 @@
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B975" t="s">
         <v>5</v>
@@ -14151,7 +14149,7 @@
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B976" t="s">
         <v>5</v>
@@ -14162,7 +14160,7 @@
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B977" t="s">
         <v>5</v>
@@ -14173,7 +14171,7 @@
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B978" t="s">
         <v>5</v>
@@ -14184,7 +14182,7 @@
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B979" t="s">
         <v>5</v>
@@ -14195,7 +14193,7 @@
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B980" t="s">
         <v>5</v>
@@ -14206,7 +14204,7 @@
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B981" t="s">
         <v>5</v>
@@ -14217,7 +14215,7 @@
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B982" t="s">
         <v>5</v>
@@ -14228,7 +14226,7 @@
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B983" t="s">
         <v>5</v>
@@ -14239,7 +14237,7 @@
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C984" t="s">
         <v>1</v>
@@ -14247,7 +14245,7 @@
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C985" t="s">
         <v>42</v>
@@ -14255,7 +14253,7 @@
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C986" t="s">
         <v>3</v>
@@ -14263,7 +14261,7 @@
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C987" t="s">
         <v>28</v>
@@ -14271,7 +14269,7 @@
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C988" t="s">
         <v>54</v>
@@ -14279,7 +14277,7 @@
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C989" t="s">
         <v>197</v>
@@ -14287,7 +14285,7 @@
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B990" t="s">
         <v>5</v>
@@ -14298,7 +14296,7 @@
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B991" t="s">
         <v>5</v>
@@ -14309,7 +14307,7 @@
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B992" t="s">
         <v>5</v>
@@ -14320,7 +14318,7 @@
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C993" t="s">
         <v>6</v>
@@ -14328,7 +14326,7 @@
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B994" t="s">
         <v>5</v>
@@ -14339,7 +14337,7 @@
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C995" t="s">
         <v>10</v>
@@ -14347,7 +14345,7 @@
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C996" t="s">
         <v>18</v>
@@ -14355,7 +14353,7 @@
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C997" t="s">
         <v>30</v>
@@ -14363,7 +14361,7 @@
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C998" t="s">
         <v>61</v>
@@ -14371,7 +14369,7 @@
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C999" t="s">
         <v>67</v>
@@ -14379,7 +14377,7 @@
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C1000" t="s">
         <v>45</v>
@@ -14387,7 +14385,7 @@
     </row>
     <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B1001" t="s">
         <v>5</v>
@@ -14398,7 +14396,7 @@
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B1002" t="s">
         <v>5</v>
@@ -14409,7 +14407,7 @@
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C1003" t="s">
         <v>12</v>
@@ -14417,7 +14415,7 @@
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C1004" t="s">
         <v>16</v>
@@ -14425,7 +14423,7 @@
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1005" t="s">
         <v>5</v>
@@ -14436,7 +14434,7 @@
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C1006" t="s">
         <v>49</v>
@@ -14444,7 +14442,7 @@
     </row>
     <row r="1007" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B1007" t="s">
         <v>5</v>
@@ -14455,7 +14453,7 @@
     </row>
     <row r="1008" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C1008" t="s">
         <v>14</v>
@@ -14463,7 +14461,7 @@
     </row>
     <row r="1009" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C1009" t="s">
         <v>42</v>
@@ -14471,7 +14469,7 @@
     </row>
     <row r="1010" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B1010" t="s">
         <v>5</v>
@@ -14482,7 +14480,7 @@
     </row>
     <row r="1011" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C1011" t="s">
         <v>30</v>
@@ -14490,7 +14488,7 @@
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C1012" t="s">
         <v>61</v>
@@ -14498,7 +14496,7 @@
     </row>
     <row r="1013" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B1013" t="s">
         <v>5</v>
@@ -14509,7 +14507,7 @@
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C1014" t="s">
         <v>8</v>
@@ -14517,7 +14515,7 @@
     </row>
     <row r="1015" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B1015" t="s">
         <v>5</v>
@@ -14528,7 +14526,7 @@
     </row>
     <row r="1016" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B1016" t="s">
         <v>5</v>
@@ -14539,7 +14537,7 @@
     </row>
     <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C1017" t="s">
         <v>35</v>
@@ -14547,7 +14545,7 @@
     </row>
     <row r="1018" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B1018" t="s">
         <v>5</v>
@@ -14558,7 +14556,7 @@
     </row>
     <row r="1019" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C1019" t="s">
         <v>33</v>
@@ -14566,7 +14564,7 @@
     </row>
     <row r="1020" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C1020" t="s">
         <v>45</v>
@@ -14574,7 +14572,7 @@
     </row>
     <row r="1021" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C1021" t="s">
         <v>45</v>
@@ -14582,7 +14580,7 @@
     </row>
     <row r="1022" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B1022" t="s">
         <v>5</v>
@@ -14593,7 +14591,7 @@
     </row>
     <row r="1023" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B1023" t="s">
         <v>5</v>
@@ -14604,7 +14602,7 @@
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C1024" t="s">
         <v>45</v>
@@ -14612,7 +14610,7 @@
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B1025" t="s">
         <v>5</v>
@@ -14623,7 +14621,7 @@
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C1026" t="s">
         <v>1</v>
@@ -14631,7 +14629,7 @@
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B1027" t="s">
         <v>5</v>
@@ -14642,7 +14640,7 @@
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C1028" t="s">
         <v>197</v>
@@ -14650,7 +14648,7 @@
     </row>
     <row r="1029" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C1029" t="s">
         <v>10</v>
@@ -14658,7 +14656,7 @@
     </row>
     <row r="1030" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C1030" t="s">
         <v>749</v>
@@ -14666,7 +14664,7 @@
     </row>
     <row r="1031" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C1031" t="s">
         <v>26</v>
@@ -14674,7 +14672,7 @@
     </row>
     <row r="1032" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C1032" t="s">
         <v>42</v>
@@ -14682,7 +14680,7 @@
     </row>
     <row r="1033" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B1033" t="s">
         <v>5</v>
@@ -14693,7 +14691,7 @@
     </row>
     <row r="1034" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1034" t="s">
         <v>5</v>
@@ -14704,7 +14702,7 @@
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B1035" t="s">
         <v>5</v>
@@ -14715,7 +14713,7 @@
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B1036" t="s">
         <v>5</v>
@@ -14726,7 +14724,7 @@
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B1037" t="s">
         <v>5</v>
@@ -14737,7 +14735,7 @@
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C1038" t="s">
         <v>54</v>
@@ -14745,7 +14743,7 @@
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C1039" t="s">
         <v>35</v>
@@ -14753,7 +14751,7 @@
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C1040" t="s">
         <v>45</v>
@@ -14761,7 +14759,7 @@
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C1041" t="s">
         <v>6</v>
@@ -14769,7 +14767,7 @@
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1042" t="s">
         <v>5</v>
@@ -14780,7 +14778,7 @@
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B1043" t="s">
         <v>5</v>
@@ -14791,7 +14789,7 @@
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C1044" t="s">
         <v>30</v>
@@ -14799,7 +14797,7 @@
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C1045" t="s">
         <v>76</v>
@@ -14807,7 +14805,7 @@
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B1046" t="s">
         <v>5</v>
@@ -14818,15 +14816,15 @@
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1047" t="s">
         <v>1081</v>
-      </c>
-      <c r="C1047" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B1048" t="s">
         <v>5</v>
@@ -14837,7 +14835,7 @@
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C1049" t="s">
         <v>42</v>
@@ -14845,7 +14843,7 @@
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B1050" t="s">
         <v>5</v>
@@ -14856,7 +14854,7 @@
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1051" t="s">
         <v>5</v>
@@ -14867,7 +14865,7 @@
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C1052" t="s">
         <v>14</v>
@@ -14875,7 +14873,7 @@
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C1053" t="s">
         <v>8</v>
@@ -14883,7 +14881,7 @@
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C1054" t="s">
         <v>401</v>
@@ -14891,7 +14889,7 @@
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B1055" t="s">
         <v>5</v>
@@ -14902,7 +14900,7 @@
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B1056" t="s">
         <v>5</v>
@@ -14913,7 +14911,7 @@
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C1057" t="s">
         <v>33</v>
@@ -14921,7 +14919,7 @@
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C1058" t="s">
         <v>54</v>
@@ -14929,7 +14927,7 @@
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B1059" t="s">
         <v>5</v>
@@ -14940,7 +14938,7 @@
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C1060" t="s">
         <v>40</v>
@@ -14948,7 +14946,7 @@
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C1061" t="s">
         <v>28</v>
@@ -14956,7 +14954,7 @@
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B1062" t="s">
         <v>5</v>
@@ -14967,7 +14965,7 @@
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B1063" t="s">
         <v>5</v>
@@ -14978,7 +14976,7 @@
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C1064" t="s">
         <v>138</v>
@@ -14986,7 +14984,7 @@
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C1065" t="s">
         <v>20</v>
@@ -14994,7 +14992,7 @@
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C1066" t="s">
         <v>49</v>
@@ -15002,7 +15000,7 @@
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C1067" t="s">
         <v>22</v>
@@ -15010,7 +15008,7 @@
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B1068" t="s">
         <v>5</v>
@@ -15021,7 +15019,7 @@
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C1069" t="s">
         <v>401</v>
@@ -15029,7 +15027,7 @@
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B1070" t="s">
         <v>5</v>
@@ -15040,18 +15038,18 @@
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B1071" t="s">
         <v>5</v>
       </c>
       <c r="C1071" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B1072" t="s">
         <v>5</v>
@@ -15062,7 +15060,7 @@
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B1073" t="s">
         <v>5</v>
@@ -15073,7 +15071,7 @@
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B1074" t="s">
         <v>5</v>
@@ -15084,7 +15082,7 @@
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B1075" t="s">
         <v>5</v>
@@ -15095,7 +15093,7 @@
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C1076" t="s">
         <v>37</v>
@@ -15103,7 +15101,7 @@
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B1077" t="s">
         <v>5</v>
@@ -15114,7 +15112,7 @@
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B1078" t="s">
         <v>5</v>
@@ -15125,7 +15123,7 @@
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C1079" t="s">
         <v>61</v>
@@ -15133,7 +15131,7 @@
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B1080" t="s">
         <v>5</v>
@@ -15144,7 +15142,7 @@
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B1081" t="s">
         <v>5</v>
@@ -15155,7 +15153,7 @@
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C1082" t="s">
         <v>33</v>
@@ -15163,7 +15161,7 @@
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C1083" t="s">
         <v>45</v>
@@ -15171,15 +15169,15 @@
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C1084" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B1085" t="s">
         <v>5</v>
@@ -15190,7 +15188,7 @@
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B1086" t="s">
         <v>5</v>
@@ -15201,7 +15199,7 @@
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C1087" t="s">
         <v>18</v>
@@ -15209,7 +15207,7 @@
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B1088" t="s">
         <v>5</v>
@@ -15220,7 +15218,7 @@
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B1089" t="s">
         <v>5</v>
@@ -15231,7 +15229,7 @@
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B1090" t="s">
         <v>5</v>
@@ -15242,7 +15240,7 @@
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C1091" t="s">
         <v>16</v>
@@ -15250,7 +15248,7 @@
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C1092" t="s">
         <v>67</v>
@@ -15258,7 +15256,7 @@
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C1093" t="s">
         <v>6</v>
@@ -15266,7 +15264,7 @@
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B1094" t="s">
         <v>5</v>
@@ -15277,7 +15275,7 @@
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C1095" t="s">
         <v>61</v>
@@ -15285,7 +15283,7 @@
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B1096" t="s">
         <v>5</v>
@@ -15296,7 +15294,7 @@
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C1097" t="s">
         <v>49</v>
@@ -15304,7 +15302,7 @@
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B1098" t="s">
         <v>5</v>
@@ -15315,18 +15313,18 @@
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B1099" t="s">
         <v>5</v>
       </c>
       <c r="C1099" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C1100" t="s">
         <v>10</v>
@@ -15334,7 +15332,7 @@
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B1101" t="s">
         <v>5</v>
@@ -15345,7 +15343,7 @@
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C1102" t="s">
         <v>12</v>
@@ -15353,7 +15351,7 @@
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C1103" t="s">
         <v>30</v>
@@ -15361,7 +15359,7 @@
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B1104" t="s">
         <v>5</v>
@@ -15372,7 +15370,7 @@
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B1105" t="s">
         <v>5</v>
@@ -15383,7 +15381,7 @@
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B1106" t="s">
         <v>5</v>
@@ -15394,7 +15392,7 @@
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C1107" t="s">
         <v>8</v>
@@ -15402,75 +15400,75 @@
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B1108" t="s">
         <v>5</v>
       </c>
       <c r="C1108" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B1109" t="s">
         <v>5</v>
       </c>
       <c r="C1109" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C1110" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C1111" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B1112" t="s">
         <v>5</v>
       </c>
       <c r="C1112" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C1113" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B1114" t="s">
         <v>5</v>
       </c>
       <c r="C1114" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B1115" t="s">
         <v>5</v>
@@ -15481,7 +15479,7 @@
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B1116" t="s">
         <v>5</v>
@@ -15492,7 +15490,7 @@
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C1117" t="s">
         <v>61</v>
@@ -15500,7 +15498,7 @@
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C1118" t="s">
         <v>61</v>
@@ -15508,7 +15506,7 @@
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B1119" t="s">
         <v>5</v>
@@ -15519,7 +15517,7 @@
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1120" t="s">
         <v>5</v>
@@ -15530,7 +15528,7 @@
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C1121" t="s">
         <v>30</v>
@@ -15538,7 +15536,7 @@
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B1122" t="s">
         <v>5</v>
@@ -15549,7 +15547,7 @@
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B1123" t="s">
         <v>5</v>
@@ -15560,7 +15558,7 @@
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C1124" t="s">
         <v>18</v>
@@ -15568,7 +15566,7 @@
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C1125" t="s">
         <v>33</v>
@@ -15576,7 +15574,7 @@
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B1126" t="s">
         <v>5</v>
@@ -15587,7 +15585,7 @@
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C1127" t="s">
         <v>6</v>
@@ -15595,7 +15593,7 @@
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C1128" t="s">
         <v>401</v>
@@ -15603,7 +15601,7 @@
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B1129" t="s">
         <v>5</v>
@@ -15614,7 +15612,7 @@
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B1130" t="s">
         <v>5</v>
@@ -15625,7 +15623,7 @@
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B1131" t="s">
         <v>5</v>
@@ -15636,7 +15634,7 @@
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B1132" t="s">
         <v>5</v>
@@ -15647,7 +15645,7 @@
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B1133" t="s">
         <v>5</v>
@@ -15658,7 +15656,7 @@
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B1134" t="s">
         <v>5</v>
@@ -15669,15 +15667,15 @@
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C1135" t="s">
         <v>1170</v>
-      </c>
-      <c r="C1135" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C1136" t="s">
         <v>61</v>
@@ -15685,7 +15683,7 @@
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C1137" t="s">
         <v>49</v>
@@ -15693,7 +15691,7 @@
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C1138" t="s">
         <v>54</v>
@@ -15701,7 +15699,7 @@
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B1139" t="s">
         <v>5</v>
@@ -15712,7 +15710,7 @@
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B1140" t="s">
         <v>5</v>
@@ -15723,7 +15721,7 @@
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C1141" t="s">
         <v>12</v>
@@ -15731,7 +15729,7 @@
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C1142" t="s">
         <v>10</v>
@@ -15739,7 +15737,7 @@
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B1143" t="s">
         <v>5</v>
@@ -15750,7 +15748,7 @@
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B1144" t="s">
         <v>5</v>
@@ -15761,7 +15759,7 @@
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C1145" t="s">
         <v>33</v>
@@ -15769,18 +15767,18 @@
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B1146" t="s">
         <v>5</v>
       </c>
       <c r="C1146" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C1147" t="s">
         <v>35</v>
@@ -15788,7 +15786,7 @@
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B1148" t="s">
         <v>5</v>
@@ -15799,7 +15797,7 @@
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C1149" t="s">
         <v>12</v>
@@ -15807,7 +15805,7 @@
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C1150" t="s">
         <v>42</v>
@@ -15815,7 +15813,7 @@
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C1151" t="s">
         <v>28</v>
@@ -15823,7 +15821,7 @@
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C1152" t="s">
         <v>40</v>
@@ -15831,7 +15829,7 @@
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B1153" t="s">
         <v>5</v>
@@ -15842,7 +15840,7 @@
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C1154" t="s">
         <v>401</v>
@@ -15850,7 +15848,7 @@
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C1155" t="s">
         <v>8</v>
@@ -15858,7 +15856,7 @@
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B1156" t="s">
         <v>5</v>
@@ -15869,7 +15867,7 @@
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B1157" t="s">
         <v>5</v>
@@ -15880,7 +15878,7 @@
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C1158" t="s">
         <v>45</v>
@@ -15888,7 +15886,7 @@
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C1159" t="s">
         <v>20</v>
@@ -15896,7 +15894,7 @@
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B1160" t="s">
         <v>5</v>
@@ -15907,7 +15905,7 @@
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C1161" t="s">
         <v>76</v>
@@ -15915,7 +15913,7 @@
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B1162" t="s">
         <v>5</v>
@@ -15926,7 +15924,7 @@
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C1163" t="s">
         <v>26</v>
@@ -15934,7 +15932,7 @@
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B1164" t="s">
         <v>5</v>
@@ -15945,18 +15943,18 @@
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B1165" t="s">
         <v>5</v>
       </c>
       <c r="C1165" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B1166" t="s">
         <v>5</v>
@@ -15967,7 +15965,7 @@
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B1167" t="s">
         <v>5</v>
@@ -15978,7 +15976,7 @@
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B1168" t="s">
         <v>5</v>
@@ -15989,7 +15987,7 @@
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B1169" t="s">
         <v>5</v>
@@ -16000,7 +15998,7 @@
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C1170" t="s">
         <v>28</v>
@@ -16008,15 +16006,15 @@
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C1171" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B1172" t="s">
         <v>5</v>
@@ -16027,7 +16025,7 @@
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C1173" t="s">
         <v>16</v>
@@ -16035,7 +16033,7 @@
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B1174" t="s">
         <v>5</v>
@@ -16046,7 +16044,7 @@
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B1175" t="s">
         <v>5</v>
@@ -16057,7 +16055,7 @@
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C1176" t="s">
         <v>22</v>
@@ -16065,7 +16063,7 @@
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B1177" t="s">
         <v>5</v>
@@ -16076,7 +16074,7 @@
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C1178" t="s">
         <v>30</v>
@@ -16084,18 +16082,18 @@
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B1179" t="s">
         <v>5</v>
       </c>
       <c r="C1179" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B1180" t="s">
         <v>5</v>
@@ -16106,7 +16104,7 @@
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C1181" t="s">
         <v>138</v>
@@ -16114,7 +16112,7 @@
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C1182" t="s">
         <v>61</v>
@@ -16122,7 +16120,7 @@
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C1183" t="s">
         <v>37</v>
@@ -16130,7 +16128,7 @@
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C1184" t="s">
         <v>14</v>
@@ -16138,7 +16136,7 @@
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C1185" t="s">
         <v>1</v>
@@ -16146,7 +16144,7 @@
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C1186" t="s">
         <v>749</v>
@@ -16154,7 +16152,7 @@
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B1187" t="s">
         <v>5</v>
@@ -16165,7 +16163,7 @@
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B1188" t="s">
         <v>5</v>
@@ -16176,7 +16174,7 @@
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C1189" t="s">
         <v>45</v>
@@ -16184,7 +16182,7 @@
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C1190" t="s">
         <v>6</v>
@@ -16192,7 +16190,7 @@
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C1191" t="s">
         <v>67</v>
@@ -16200,7 +16198,7 @@
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B1192" t="s">
         <v>5</v>
@@ -16211,7 +16209,7 @@
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C1193" t="s">
         <v>42</v>
@@ -16219,7 +16217,7 @@
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B1194" t="s">
         <v>5</v>
@@ -16230,7 +16228,7 @@
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C1195" t="s">
         <v>54</v>
@@ -16238,7 +16236,7 @@
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B1196" t="s">
         <v>5</v>
@@ -16249,7 +16247,7 @@
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B1197" t="s">
         <v>5</v>
@@ -16260,7 +16258,7 @@
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C1198" t="s">
         <v>49</v>
@@ -16268,7 +16266,7 @@
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B1199" t="s">
         <v>5</v>
@@ -16279,7 +16277,7 @@
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C1200" t="s">
         <v>10</v>
@@ -16287,7 +16285,7 @@
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B1201" t="s">
         <v>5</v>
@@ -16298,7 +16296,7 @@
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C1202" t="s">
         <v>8</v>
@@ -16306,7 +16304,7 @@
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C1203" t="s">
         <v>8</v>
@@ -16314,7 +16312,7 @@
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B1204" t="s">
         <v>5</v>
@@ -16325,7 +16323,7 @@
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B1205" t="s">
         <v>5</v>
@@ -16336,7 +16334,7 @@
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C1206" t="s">
         <v>8</v>
@@ -16344,7 +16342,7 @@
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B1207" t="s">
         <v>5</v>
@@ -16355,7 +16353,7 @@
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C1208" t="s">
         <v>33</v>
@@ -16363,7 +16361,7 @@
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B1209" t="s">
         <v>5</v>
@@ -16374,7 +16372,7 @@
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C1210" t="s">
         <v>10</v>
@@ -16382,7 +16380,7 @@
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B1211" t="s">
         <v>5</v>
@@ -16393,7 +16391,7 @@
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B1212" t="s">
         <v>5</v>
@@ -16404,7 +16402,7 @@
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C1213" t="s">
         <v>42</v>
@@ -16412,7 +16410,7 @@
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C1214" t="s">
         <v>49</v>
@@ -16420,7 +16418,7 @@
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B1215" t="s">
         <v>5</v>
@@ -16431,7 +16429,7 @@
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C1216" t="s">
         <v>6</v>
@@ -16439,7 +16437,7 @@
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B1217" t="s">
         <v>5</v>
@@ -16450,7 +16448,7 @@
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B1218" t="s">
         <v>5</v>
@@ -16461,7 +16459,7 @@
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B1219" t="s">
         <v>5</v>
@@ -16472,7 +16470,7 @@
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1220" t="s">
         <v>5</v>
@@ -16483,7 +16481,7 @@
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1221" t="s">
         <v>5</v>
@@ -16494,7 +16492,7 @@
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1222" t="s">
         <v>5</v>
@@ -16505,18 +16503,18 @@
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1223" t="s">
         <v>5</v>
       </c>
       <c r="C1223" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C1224" t="s">
         <v>35</v>
@@ -16524,7 +16522,7 @@
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1225" t="s">
         <v>5</v>
@@ -16535,7 +16533,7 @@
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C1226" t="s">
         <v>22</v>
@@ -16543,15 +16541,15 @@
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C1227" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C1228" t="s">
         <v>67</v>
@@ -16559,7 +16557,7 @@
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1229" t="s">
         <v>5</v>
@@ -16570,7 +16568,7 @@
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B1230" t="s">
         <v>5</v>
@@ -16581,7 +16579,7 @@
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C1231" t="s">
         <v>30</v>
@@ -16589,7 +16587,7 @@
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B1232" t="s">
         <v>5</v>
@@ -16600,7 +16598,7 @@
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C1233" t="s">
         <v>12</v>
@@ -16608,7 +16606,7 @@
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B1234" t="s">
         <v>5</v>
@@ -16619,7 +16617,7 @@
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C1235" t="s">
         <v>20</v>
@@ -16627,15 +16625,15 @@
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C1236" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B1237" t="s">
         <v>5</v>
@@ -16646,15 +16644,15 @@
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C1238" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C1239" t="s">
         <v>16</v>
@@ -16662,7 +16660,7 @@
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C1240" t="s">
         <v>42</v>
@@ -16670,7 +16668,7 @@
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C1241" t="s">
         <v>14</v>
@@ -16678,7 +16676,7 @@
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1242" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C1242" t="s">
         <v>18</v>
@@ -16686,7 +16684,7 @@
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B1243" t="s">
         <v>5</v>
@@ -16697,7 +16695,7 @@
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C1244" t="s">
         <v>54</v>
@@ -16705,7 +16703,7 @@
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C1245" t="s">
         <v>10</v>
@@ -16713,7 +16711,7 @@
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C1246" t="s">
         <v>8</v>
@@ -16721,7 +16719,7 @@
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1247" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="B1247" t="s">
         <v>5</v>
@@ -16732,7 +16730,7 @@
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1248" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C1248" t="s">
         <v>28</v>
@@ -16740,7 +16738,7 @@
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1249" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B1249" t="s">
         <v>5</v>
@@ -16751,7 +16749,7 @@
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1250" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C1250" t="s">
         <v>37</v>
@@ -16759,7 +16757,7 @@
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1251" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B1251" t="s">
         <v>5</v>
@@ -16770,7 +16768,7 @@
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1252" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C1252" t="s">
         <v>61</v>
@@ -16778,7 +16776,7 @@
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1253" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B1253" t="s">
         <v>5</v>
@@ -16789,7 +16787,7 @@
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B1254" t="s">
         <v>5</v>
@@ -16800,7 +16798,7 @@
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B1255" t="s">
         <v>5</v>
@@ -16811,7 +16809,7 @@
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B1256" t="s">
         <v>5</v>
@@ -16822,18 +16820,18 @@
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B1257" t="s">
         <v>5</v>
       </c>
       <c r="C1257" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B1258" t="s">
         <v>5</v>
@@ -16844,7 +16842,7 @@
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C1259" t="s">
         <v>1</v>
@@ -16852,7 +16850,7 @@
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C1260" t="s">
         <v>33</v>
@@ -16860,7 +16858,7 @@
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B1261" t="s">
         <v>5</v>
@@ -16871,7 +16869,7 @@
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C1262" t="s">
         <v>40</v>
@@ -16879,7 +16877,7 @@
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C1263" t="s">
         <v>54</v>
@@ -16887,7 +16885,7 @@
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C1264" t="s">
         <v>58</v>
@@ -16895,7 +16893,7 @@
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C1265" t="s">
         <v>26</v>
@@ -16903,7 +16901,7 @@
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C1266" t="s">
         <v>76</v>
@@ -16911,7 +16909,7 @@
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C1267" t="s">
         <v>8</v>
@@ -16919,7 +16917,7 @@
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C1268" t="s">
         <v>749</v>
@@ -16927,7 +16925,7 @@
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B1269" t="s">
         <v>5</v>
@@ -16938,7 +16936,7 @@
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B1270" t="s">
         <v>5</v>
@@ -16949,7 +16947,7 @@
     </row>
     <row r="1271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C1271" t="s">
         <v>138</v>
@@ -16957,7 +16955,7 @@
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B1272" t="s">
         <v>5</v>
@@ -16968,7 +16966,7 @@
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B1273" t="s">
         <v>5</v>
@@ -16979,7 +16977,7 @@
     </row>
     <row r="1274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B1274" t="s">
         <v>5</v>
@@ -16990,7 +16988,7 @@
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C1275" t="s">
         <v>6</v>
@@ -16998,7 +16996,7 @@
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C1276" t="s">
         <v>12</v>
@@ -17006,7 +17004,7 @@
     </row>
     <row r="1277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="B1277" t="s">
         <v>5</v>
@@ -17017,7 +17015,7 @@
     </row>
     <row r="1278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C1278" t="s">
         <v>58</v>
@@ -17025,7 +17023,7 @@
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B1279" t="s">
         <v>5</v>
@@ -17036,7 +17034,7 @@
     </row>
     <row r="1280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C1280" t="s">
         <v>30</v>
@@ -17044,7 +17042,7 @@
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B1281" t="s">
         <v>5</v>
@@ -17055,7 +17053,7 @@
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C1282" t="s">
         <v>49</v>
@@ -17063,7 +17061,7 @@
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B1283" t="s">
         <v>5</v>
@@ -17074,7 +17072,7 @@
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B1284" t="s">
         <v>5</v>
@@ -17085,7 +17083,7 @@
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1285" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1285" t="s">
         <v>5</v>
@@ -17096,7 +17094,7 @@
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1286" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C1286" t="s">
         <v>45</v>
@@ -17104,18 +17102,18 @@
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1287" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B1287" t="s">
         <v>5</v>
       </c>
       <c r="C1287" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1288" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C1288" t="s">
         <v>28</v>
@@ -17123,7 +17121,7 @@
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1289" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C1289" t="s">
         <v>54</v>
@@ -17131,7 +17129,7 @@
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1290" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C1290" t="s">
         <v>54</v>
@@ -17139,7 +17137,7 @@
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1291" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1291" t="s">
         <v>5</v>
@@ -17150,7 +17148,7 @@
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1292" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B1292" t="s">
         <v>5</v>
@@ -17161,7 +17159,7 @@
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C1293" t="s">
         <v>54</v>
@@ -17169,7 +17167,7 @@
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1294" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B1294" t="s">
         <v>5</v>
@@ -17180,7 +17178,7 @@
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1295" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1295" t="s">
         <v>5</v>
@@ -17191,7 +17189,7 @@
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1296" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B1296" t="s">
         <v>5</v>
@@ -17202,7 +17200,7 @@
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C1297" t="s">
         <v>33</v>
@@ -17210,7 +17208,7 @@
     </row>
     <row r="1298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C1298" t="s">
         <v>33</v>
@@ -17218,7 +17216,7 @@
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1299" t="s">
         <v>5</v>
@@ -17229,7 +17227,7 @@
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C1300" t="s">
         <v>33</v>
@@ -17237,7 +17235,7 @@
     </row>
     <row r="1301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C1301" t="s">
         <v>33</v>
@@ -17245,18 +17243,18 @@
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B1302" t="s">
         <v>5</v>
       </c>
       <c r="C1302" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B1303" t="s">
         <v>5</v>
@@ -17267,7 +17265,7 @@
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C1304" t="s">
         <v>10</v>
@@ -17275,7 +17273,7 @@
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B1305" t="s">
         <v>5</v>
@@ -17286,7 +17284,7 @@
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C1306" t="s">
         <v>749</v>
@@ -17294,7 +17292,7 @@
     </row>
     <row r="1307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C1307" t="s">
         <v>26</v>
@@ -17302,7 +17300,7 @@
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B1308" t="s">
         <v>5</v>
@@ -17313,7 +17311,7 @@
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C1309" t="s">
         <v>58</v>
@@ -17321,7 +17319,7 @@
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C1310" t="s">
         <v>6</v>
@@ -17329,7 +17327,7 @@
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B1311" t="s">
         <v>5</v>
@@ -17340,7 +17338,7 @@
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B1312" t="s">
         <v>5</v>
@@ -17351,7 +17349,7 @@
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1313" t="s">
         <v>5</v>
@@ -17362,7 +17360,7 @@
     </row>
     <row r="1314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B1314" t="s">
         <v>5</v>
@@ -17373,7 +17371,7 @@
     </row>
     <row r="1315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C1315" t="s">
         <v>37</v>
@@ -17381,7 +17379,7 @@
     </row>
     <row r="1316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C1316" t="s">
         <v>16</v>
@@ -17389,7 +17387,7 @@
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C1317" t="s">
         <v>58</v>
@@ -17397,7 +17395,7 @@
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C1318" t="s">
         <v>40</v>
@@ -17405,7 +17403,7 @@
     </row>
     <row r="1319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B1319" t="s">
         <v>5</v>
@@ -17416,7 +17414,7 @@
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C1320" t="s">
         <v>76</v>
@@ -17424,15 +17422,15 @@
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C1321" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C1322" t="s">
         <v>45</v>
@@ -17440,7 +17438,7 @@
     </row>
     <row r="1323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C1323" t="s">
         <v>138</v>
@@ -17448,7 +17446,7 @@
     </row>
     <row r="1324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C1324" t="s">
         <v>49</v>
@@ -17456,7 +17454,7 @@
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B1325" t="s">
         <v>5</v>
@@ -17467,15 +17465,15 @@
     </row>
     <row r="1326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C1326" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B1327" t="s">
         <v>5</v>
@@ -17486,7 +17484,7 @@
     </row>
     <row r="1328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B1328" t="s">
         <v>5</v>
@@ -17497,7 +17495,7 @@
     </row>
     <row r="1329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C1329" t="s">
         <v>12</v>
@@ -17505,7 +17503,7 @@
     </row>
     <row r="1330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C1330" t="s">
         <v>6</v>
@@ -17513,7 +17511,7 @@
     </row>
     <row r="1331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C1331" t="s">
         <v>30</v>
@@ -17521,7 +17519,7 @@
     </row>
     <row r="1332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B1332" t="s">
         <v>5</v>
@@ -17532,7 +17530,7 @@
     </row>
     <row r="1333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C1333" t="s">
         <v>54</v>
@@ -17540,7 +17538,7 @@
     </row>
     <row r="1334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C1334" t="s">
         <v>42</v>
@@ -17548,7 +17546,7 @@
     </row>
     <row r="1335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B1335" t="s">
         <v>5</v>
@@ -17559,7 +17557,7 @@
     </row>
     <row r="1336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C1336" t="s">
         <v>8</v>
@@ -17567,7 +17565,7 @@
     </row>
     <row r="1337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B1337" t="s">
         <v>5</v>
@@ -17578,7 +17576,7 @@
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B1338" t="s">
         <v>5</v>
@@ -17589,7 +17587,7 @@
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C1339" t="s">
         <v>35</v>
@@ -17597,7 +17595,7 @@
     </row>
     <row r="1340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B1340" t="s">
         <v>5</v>
@@ -17608,7 +17606,7 @@
     </row>
     <row r="1341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C1341" t="s">
         <v>22</v>
@@ -17616,7 +17614,7 @@
     </row>
     <row r="1342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B1342" t="s">
         <v>5</v>
@@ -17627,7 +17625,7 @@
     </row>
     <row r="1343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B1343" t="s">
         <v>5</v>
@@ -17638,7 +17636,7 @@
     </row>
     <row r="1344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C1344" t="s">
         <v>61</v>
@@ -17646,7 +17644,7 @@
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B1345" t="s">
         <v>5</v>
@@ -17657,7 +17655,7 @@
     </row>
     <row r="1346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B1346" t="s">
         <v>5</v>
@@ -17668,7 +17666,7 @@
     </row>
     <row r="1347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B1347" t="s">
         <v>5</v>
@@ -17679,7 +17677,7 @@
     </row>
     <row r="1348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1348" t="s">
         <v>5</v>
@@ -17690,7 +17688,7 @@
     </row>
     <row r="1349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B1349" t="s">
         <v>5</v>
@@ -17701,7 +17699,7 @@
     </row>
     <row r="1350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B1350" t="s">
         <v>5</v>
@@ -17712,7 +17710,7 @@
     </row>
     <row r="1351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B1351" t="s">
         <v>5</v>
@@ -17723,7 +17721,7 @@
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C1352" t="s">
         <v>28</v>
@@ -17731,7 +17729,7 @@
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B1353" t="s">
         <v>5</v>
@@ -17742,7 +17740,7 @@
     </row>
     <row r="1354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C1354" t="s">
         <v>12</v>
@@ -17750,7 +17748,7 @@
     </row>
     <row r="1355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C1355" t="s">
         <v>20</v>
@@ -17758,7 +17756,7 @@
     </row>
     <row r="1356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C1356" t="s">
         <v>8</v>
@@ -17766,7 +17764,7 @@
     </row>
     <row r="1357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B1357" t="s">
         <v>5</v>
@@ -17777,7 +17775,7 @@
     </row>
     <row r="1358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C1358" t="s">
         <v>67</v>
@@ -17785,7 +17783,7 @@
     </row>
     <row r="1359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B1359" t="s">
         <v>5</v>
@@ -17796,7 +17794,7 @@
     </row>
     <row r="1360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B1360" t="s">
         <v>5</v>
@@ -17807,7 +17805,7 @@
     </row>
     <row r="1361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C1361" t="s">
         <v>14</v>
@@ -17815,7 +17813,7 @@
     </row>
     <row r="1362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C1362" t="s">
         <v>54</v>
@@ -17823,7 +17821,7 @@
     </row>
     <row r="1363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B1363" t="s">
         <v>5</v>
@@ -17834,7 +17832,7 @@
     </row>
     <row r="1364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="C1364" t="s">
         <v>61</v>
@@ -17842,7 +17840,7 @@
     </row>
     <row r="1365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B1365" t="s">
         <v>5</v>
@@ -17853,7 +17851,7 @@
     </row>
     <row r="1366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B1366" t="s">
         <v>5</v>
@@ -17864,15 +17862,15 @@
     </row>
     <row r="1367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C1367" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C1368" t="s">
         <v>18</v>
@@ -17880,7 +17878,7 @@
     </row>
     <row r="1369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C1369" t="s">
         <v>1</v>
@@ -17888,7 +17886,7 @@
     </row>
     <row r="1370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C1370" t="s">
         <v>30</v>
@@ -17896,7 +17894,7 @@
     </row>
     <row r="1371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B1371" t="s">
         <v>5</v>
@@ -17907,7 +17905,7 @@
     </row>
     <row r="1372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1372" t="s">
         <v>5</v>
@@ -17918,7 +17916,7 @@
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C1373" t="s">
         <v>28</v>
@@ -17926,7 +17924,7 @@
     </row>
     <row r="1374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B1374" t="s">
         <v>5</v>
@@ -17937,7 +17935,7 @@
     </row>
     <row r="1375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B1375" t="s">
         <v>5</v>
@@ -17948,7 +17946,7 @@
     </row>
     <row r="1376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C1376" t="s">
         <v>49</v>
@@ -17956,7 +17954,7 @@
     </row>
     <row r="1377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B1377" t="s">
         <v>5</v>
@@ -17967,7 +17965,7 @@
     </row>
     <row r="1378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B1378" t="s">
         <v>5</v>
@@ -17978,7 +17976,7 @@
     </row>
     <row r="1379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B1379" t="s">
         <v>5</v>
@@ -17989,7 +17987,7 @@
     </row>
     <row r="1380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C1380" t="s">
         <v>33</v>
@@ -17997,18 +17995,18 @@
     </row>
     <row r="1381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B1381" t="s">
         <v>5</v>
       </c>
       <c r="C1381" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C1382" t="s">
         <v>45</v>
@@ -18016,7 +18014,7 @@
     </row>
     <row r="1383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C1383" t="s">
         <v>42</v>
@@ -18024,7 +18022,7 @@
     </row>
     <row r="1384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C1384" t="s">
         <v>6</v>
@@ -18032,18 +18030,18 @@
     </row>
     <row r="1385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B1385" t="s">
         <v>5</v>
       </c>
       <c r="C1385" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B1386" t="s">
         <v>5</v>
@@ -18054,7 +18052,7 @@
     </row>
     <row r="1387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C1387" t="s">
         <v>30</v>
@@ -18062,7 +18060,7 @@
     </row>
     <row r="1388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B1388" t="s">
         <v>5</v>
@@ -18073,7 +18071,7 @@
     </row>
     <row r="1389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C1389" t="s">
         <v>10</v>
@@ -18081,7 +18079,7 @@
     </row>
     <row r="1390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B1390" t="s">
         <v>5</v>
@@ -18092,7 +18090,7 @@
     </row>
     <row r="1391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B1391" t="s">
         <v>5</v>
@@ -18103,7 +18101,7 @@
     </row>
     <row r="1392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C1392" t="s">
         <v>8</v>
@@ -18111,7 +18109,7 @@
     </row>
     <row r="1393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B1393" t="s">
         <v>5</v>
@@ -18122,7 +18120,7 @@
     </row>
     <row r="1394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B1394" t="s">
         <v>5</v>
@@ -18133,7 +18131,7 @@
     </row>
     <row r="1395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B1395" t="s">
         <v>5</v>
@@ -18144,7 +18142,7 @@
     </row>
     <row r="1396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B1396" t="s">
         <v>5</v>
@@ -18155,7 +18153,7 @@
     </row>
     <row r="1397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B1397" t="s">
         <v>5</v>
@@ -18166,7 +18164,7 @@
     </row>
     <row r="1398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B1398" t="s">
         <v>5</v>
@@ -18177,7 +18175,7 @@
     </row>
     <row r="1399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C1399" t="s">
         <v>20</v>
@@ -18185,7 +18183,7 @@
     </row>
     <row r="1400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C1400" t="s">
         <v>33</v>
@@ -18193,7 +18191,7 @@
     </row>
     <row r="1401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B1401" t="s">
         <v>5</v>
@@ -18204,7 +18202,7 @@
     </row>
     <row r="1402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C1402" t="s">
         <v>67</v>
@@ -18212,7 +18210,7 @@
     </row>
     <row r="1403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B1403" t="s">
         <v>5</v>
@@ -18223,7 +18221,7 @@
     </row>
     <row r="1404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C1404" t="s">
         <v>37</v>
@@ -18231,7 +18229,7 @@
     </row>
     <row r="1405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C1405" t="s">
         <v>61</v>
@@ -18239,7 +18237,7 @@
     </row>
     <row r="1406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C1406" t="s">
         <v>26</v>
@@ -18247,7 +18245,7 @@
     </row>
     <row r="1407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B1407" t="s">
         <v>5</v>
@@ -18258,7 +18256,7 @@
     </row>
     <row r="1408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C1408" t="s">
         <v>54</v>
@@ -18266,7 +18264,7 @@
     </row>
     <row r="1409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C1409" t="s">
         <v>49</v>
@@ -18274,7 +18272,7 @@
     </row>
     <row r="1410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C1410" t="s">
         <v>8</v>
@@ -18282,7 +18280,7 @@
     </row>
     <row r="1411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B1411" t="s">
         <v>5</v>
@@ -18293,7 +18291,7 @@
     </row>
     <row r="1412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1412" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B1412" t="s">
         <v>5</v>
@@ -18304,7 +18302,7 @@
     </row>
     <row r="1413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1413" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C1413" t="s">
         <v>6</v>
@@ -18312,15 +18310,15 @@
     </row>
     <row r="1414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1414" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C1414" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1415" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B1415" t="s">
         <v>5</v>
@@ -18331,7 +18329,7 @@
     </row>
     <row r="1416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1416" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C1416" t="s">
         <v>54</v>
@@ -18339,7 +18337,7 @@
     </row>
     <row r="1417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C1417" t="s">
         <v>58</v>
@@ -18347,7 +18345,7 @@
     </row>
     <row r="1418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1418" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B1418" t="s">
         <v>5</v>
@@ -18358,7 +18356,7 @@
     </row>
     <row r="1419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C1419" t="s">
         <v>12</v>
@@ -18366,7 +18364,7 @@
     </row>
     <row r="1420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1420" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C1420" t="s">
         <v>749</v>
@@ -18374,7 +18372,7 @@
     </row>
     <row r="1421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1421" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B1421" t="s">
         <v>5</v>
@@ -18385,7 +18383,7 @@
     </row>
     <row r="1422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B1422" t="s">
         <v>5</v>
@@ -18396,15 +18394,15 @@
     </row>
     <row r="1423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1423" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C1423" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1424" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B1424" t="s">
         <v>5</v>
@@ -18415,7 +18413,7 @@
     </row>
     <row r="1425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1425" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C1425" t="s">
         <v>35</v>
@@ -18423,7 +18421,7 @@
     </row>
     <row r="1426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1426" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B1426" t="s">
         <v>5</v>
@@ -18434,7 +18432,7 @@
     </row>
     <row r="1427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1427" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C1427" t="s">
         <v>1</v>
@@ -18442,7 +18440,7 @@
     </row>
     <row r="1428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1428" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B1428" t="s">
         <v>5</v>
@@ -18453,7 +18451,7 @@
     </row>
     <row r="1429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1429" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C1429" t="s">
         <v>28</v>
@@ -18461,7 +18459,7 @@
     </row>
     <row r="1430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1430" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C1430" t="s">
         <v>61</v>
@@ -18469,7 +18467,7 @@
     </row>
     <row r="1431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1431" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C1431" t="s">
         <v>45</v>
@@ -18477,7 +18475,7 @@
     </row>
     <row r="1432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1432" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B1432" t="s">
         <v>5</v>
@@ -18488,7 +18486,7 @@
     </row>
     <row r="1433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1433" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B1433" t="s">
         <v>5</v>
@@ -18499,7 +18497,7 @@
     </row>
     <row r="1434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B1434" t="s">
         <v>5</v>
@@ -18510,7 +18508,7 @@
     </row>
     <row r="1435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1435" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B1435" t="s">
         <v>5</v>
@@ -18521,7 +18519,7 @@
     </row>
     <row r="1436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B1436" t="s">
         <v>5</v>
@@ -18532,7 +18530,7 @@
     </row>
     <row r="1437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1437" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B1437" t="s">
         <v>5</v>
@@ -18543,7 +18541,7 @@
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C1438" t="s">
         <v>12</v>
@@ -18551,7 +18549,7 @@
     </row>
     <row r="1439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1439" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C1439" t="s">
         <v>42</v>
@@ -18559,7 +18557,7 @@
     </row>
     <row r="1440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1440" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C1440" t="s">
         <v>40</v>
@@ -18567,7 +18565,7 @@
     </row>
     <row r="1441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B1441" t="s">
         <v>5</v>
@@ -18578,7 +18576,7 @@
     </row>
     <row r="1442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1442" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C1442" t="s">
         <v>16</v>
@@ -18586,7 +18584,7 @@
     </row>
     <row r="1443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1443" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C1443" t="s">
         <v>22</v>
@@ -18594,7 +18592,7 @@
     </row>
     <row r="1444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1444" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C1444" t="s">
         <v>76</v>
@@ -18602,7 +18600,7 @@
     </row>
     <row r="1445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1445" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B1445" t="s">
         <v>5</v>
@@ -18613,7 +18611,7 @@
     </row>
     <row r="1446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1446" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B1446" t="s">
         <v>5</v>
@@ -18624,7 +18622,7 @@
     </row>
     <row r="1447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1447" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C1447" t="s">
         <v>14</v>
@@ -18632,7 +18630,7 @@
     </row>
     <row r="1448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1448" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B1448" t="s">
         <v>5</v>
@@ -18643,7 +18641,7 @@
     </row>
     <row r="1449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1449" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B1449" t="s">
         <v>5</v>
@@ -18654,7 +18652,7 @@
     </row>
     <row r="1450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1450" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C1450" t="s">
         <v>138</v>
@@ -18662,7 +18660,7 @@
     </row>
     <row r="1451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1451" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B1451" t="s">
         <v>5</v>
@@ -18673,7 +18671,7 @@
     </row>
     <row r="1452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1452" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C1452" t="s">
         <v>18</v>
@@ -18681,7 +18679,7 @@
     </row>
     <row r="1453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1453" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B1453" t="s">
         <v>5</v>
@@ -18692,7 +18690,7 @@
     </row>
     <row r="1454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C1454" t="s">
         <v>49</v>
@@ -18700,7 +18698,7 @@
     </row>
     <row r="1455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C1455" t="s">
         <v>45</v>
@@ -18708,7 +18706,7 @@
     </row>
     <row r="1456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B1456" t="s">
         <v>5</v>
@@ -18719,7 +18717,7 @@
     </row>
     <row r="1457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C1457" t="s">
         <v>33</v>
@@ -18727,7 +18725,7 @@
     </row>
     <row r="1458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C1458" t="s">
         <v>28</v>
@@ -18735,18 +18733,18 @@
     </row>
     <row r="1459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B1459" t="s">
         <v>5</v>
       </c>
       <c r="C1459" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B1460" t="s">
         <v>5</v>
@@ -18757,7 +18755,7 @@
     </row>
     <row r="1461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B1461" t="s">
         <v>5</v>
@@ -18768,18 +18766,18 @@
     </row>
     <row r="1462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B1462" t="s">
         <v>5</v>
       </c>
       <c r="C1462" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C1463" t="s">
         <v>10</v>
@@ -18787,15 +18785,15 @@
     </row>
     <row r="1464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C1464" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B1465" t="s">
         <v>5</v>
@@ -18806,7 +18804,7 @@
     </row>
     <row r="1466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B1466" t="s">
         <v>5</v>
@@ -18817,7 +18815,7 @@
     </row>
     <row r="1467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="C1467" t="s">
         <v>42</v>
@@ -18825,7 +18823,7 @@
     </row>
     <row r="1468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="C1468" t="s">
         <v>42</v>
@@ -18833,7 +18831,7 @@
     </row>
     <row r="1469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B1469" t="s">
         <v>5</v>
@@ -18844,7 +18842,7 @@
     </row>
     <row r="1470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="C1470" t="s">
         <v>42</v>
